--- a/models/toy/inst_estimation/totalflux_senMat.xlsx
+++ b/models/toy/inst_estimation/totalflux_senMat.xlsx
@@ -597,97 +597,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.709802780348609</v>
+        <v>-2.978358019635732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7879874962060104</v>
+        <v>1.46110522798494</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9342165313957568</v>
+        <v>1.76488022812725</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.003481638113378234</v>
+        <v>-0.1819887215705478</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.008818203115686526</v>
+        <v>-0.0649079407850771</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0001014060318983378</v>
+        <v>-0.0007307741227984005</v>
       </c>
       <c r="H2" t="n">
-        <v>-9.416936009110833</v>
+        <v>-7.557823177602677</v>
       </c>
       <c r="I2" t="n">
-        <v>4.428285813123682</v>
+        <v>4.290037286492535</v>
       </c>
       <c r="J2" t="n">
-        <v>5.281764765572623</v>
+        <v>5.37823968090039</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.193906822576058</v>
+        <v>-1.613803115652376</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.09802027893351918</v>
+        <v>-0.4906743893445039</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.001187468136243493</v>
+        <v>-0.005976284788717497</v>
       </c>
       <c r="N2" t="n">
-        <v>-14.99843658990088</v>
+        <v>-4.882783070365717</v>
       </c>
       <c r="O2" t="n">
-        <v>9.906370158622767</v>
+        <v>9.075332653468799</v>
       </c>
       <c r="P2" t="n">
-        <v>12.57735662652189</v>
+        <v>12.54397119453234</v>
       </c>
       <c r="Q2" t="n">
-        <v>-5.693726982234729</v>
+        <v>-12.79800240606736</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.7475431561405</v>
+        <v>-3.829682313083997</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.04402005717696185</v>
+        <v>-0.1088360584230113</v>
       </c>
       <c r="T2" t="n">
-        <v>7.11851087904429</v>
+        <v>7.893833719290445</v>
       </c>
       <c r="U2" t="n">
-        <v>6.393301024095703</v>
+        <v>9.347706739494658</v>
       </c>
       <c r="V2" t="n">
-        <v>8.016981936181317</v>
+        <v>10.48938412452083</v>
       </c>
       <c r="W2" t="n">
-        <v>-15.85569867043681</v>
+        <v>-20.01345706802031</v>
       </c>
       <c r="X2" t="n">
-        <v>-5.306346966387986</v>
+        <v>-7.103493917402907</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.3667482028617255</v>
+        <v>-0.6139735977514333</v>
       </c>
       <c r="Z2" t="n">
-        <v>-8.809580281925738</v>
+        <v>-18.65772957169785</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.812039140220876</v>
+        <v>10.22202896656103</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.070701696775066</v>
+        <v>6.459959547148602</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.04884598561412379</v>
+        <v>3.699109108859769</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.464855776167379</v>
+        <v>-0.8523620783265802</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.6571507646211538</v>
+        <v>-0.8710059723279313</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.1444835993293054</v>
+        <v>0.2324312823225227</v>
       </c>
     </row>
     <row r="3">
@@ -697,97 +697,97 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.709802724767575</v>
+        <v>-2.978358019637952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7879874711883369</v>
+        <v>1.46110522798605</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9342165019557596</v>
+        <v>1.76488022812836</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00348163918900668</v>
+        <v>-0.1819887215705132</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.008818203163881856</v>
+        <v>-0.06490794078507493</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0001014060323625837</v>
+        <v>-0.0007307741227983665</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.416935803986458</v>
+        <v>-7.557823177607116</v>
       </c>
       <c r="I3" t="n">
-        <v>4.428285721262694</v>
+        <v>4.290037286496975</v>
       </c>
       <c r="J3" t="n">
-        <v>5.281764657673286</v>
+        <v>5.37823968090483</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1939068274977064</v>
+        <v>-1.613803115652099</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.09802027938042945</v>
+        <v>-0.4906743893444865</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.001187468141241432</v>
+        <v>-0.005976284788717225</v>
       </c>
       <c r="N3" t="n">
-        <v>-14.99843608606682</v>
+        <v>-4.882783070383476</v>
       </c>
       <c r="O3" t="n">
-        <v>9.906369948607212</v>
+        <v>9.075332653477679</v>
       </c>
       <c r="P3" t="n">
-        <v>12.57735638428678</v>
+        <v>12.5439711945501</v>
       </c>
       <c r="Q3" t="n">
-        <v>-5.693727023835272</v>
+        <v>-12.79800240606514</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.747543165945713</v>
+        <v>-3.829682313083441</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.04402005741546413</v>
+        <v>-0.108836058422994</v>
       </c>
       <c r="T3" t="n">
-        <v>7.118511536687467</v>
+        <v>7.89383371925492</v>
       </c>
       <c r="U3" t="n">
-        <v>6.393300815407187</v>
+        <v>9.34770673951242</v>
       </c>
       <c r="V3" t="n">
-        <v>8.016981700512606</v>
+        <v>10.48938412452971</v>
       </c>
       <c r="W3" t="n">
-        <v>-15.85569883203091</v>
+        <v>-20.01345706801143</v>
       </c>
       <c r="X3" t="n">
-        <v>-5.30634701532204</v>
+        <v>-7.103493917400686</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0.3667482056719801</v>
+        <v>-0.6139735977512946</v>
       </c>
       <c r="Z3" t="n">
-        <v>-8.809579605976209</v>
+        <v>-18.65772957173337</v>
       </c>
       <c r="AA3" t="n">
-        <v>6.812039049620698</v>
+        <v>10.22202896656547</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.070701551666962</v>
+        <v>6.459959547157483</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0488456782223311</v>
+        <v>3.699109108877533</v>
       </c>
       <c r="AD3" t="n">
-        <v>-1.464855893517633</v>
+        <v>-0.8523620783176982</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.6571507800992606</v>
+        <v>-0.871005972326821</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1444835972026794</v>
+        <v>0.2324312823226364</v>
       </c>
     </row>
     <row r="4">
@@ -797,97 +797,97 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-6.677442390654771</v>
+        <v>-3.225733044734957</v>
       </c>
       <c r="C4" t="n">
-        <v>2.976024659258611</v>
+        <v>1.412074164503649</v>
       </c>
       <c r="D4" t="n">
-        <v>3.490927339019204</v>
+        <v>1.646627961855945</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1879259595526224</v>
+        <v>0.141646390334282</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02232390904688648</v>
+        <v>0.02510842766352472</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000240523793335834</v>
+        <v>0.0002761003779703362</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.361838477908707</v>
+        <v>-8.722718349465147</v>
       </c>
       <c r="I4" t="n">
-        <v>2.468124305867081</v>
+        <v>3.609298674478238</v>
       </c>
       <c r="J4" t="n">
-        <v>2.75700097865979</v>
+        <v>4.129622177110615</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9071601025722374</v>
+        <v>0.7966373946401536</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2268599231662224</v>
+        <v>0.1849327619165354</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002693167754809065</v>
+        <v>0.00222734131918904</v>
       </c>
       <c r="N4" t="n">
-        <v>-10.76630742260769</v>
+        <v>-16.11529125383388</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.99740377434472</v>
+        <v>4.808850115160541</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.363631196204459</v>
+        <v>4.989208589553469</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.20528806483757</v>
+        <v>4.902080449535722</v>
       </c>
       <c r="R4" t="n">
-        <v>3.827893460388443</v>
+        <v>1.376955804706298</v>
       </c>
       <c r="S4" t="n">
-        <v>0.09416086860461613</v>
+        <v>0.038196294851406</v>
       </c>
       <c r="T4" t="n">
-        <v>-40.3457588740579</v>
+        <v>-9.456536497396705</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.5133736403477698</v>
+        <v>0.8474596023921247</v>
       </c>
       <c r="V4" t="n">
-        <v>-1.543213923696778</v>
+        <v>1.300286253585226</v>
       </c>
       <c r="W4" t="n">
-        <v>31.34053634049221</v>
+        <v>5.250186914725215</v>
       </c>
       <c r="X4" t="n">
-        <v>10.34682483047335</v>
+        <v>1.879489640070679</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7149852678479609</v>
+        <v>0.1791140865794251</v>
       </c>
       <c r="Z4" t="n">
-        <v>46.87874002010971</v>
+        <v>22.69675951681078</v>
       </c>
       <c r="AA4" t="n">
-        <v>-13.37924753495394</v>
+        <v>-4.151327021478534</v>
       </c>
       <c r="AB4" t="n">
-        <v>-9.29575632977112</v>
+        <v>-3.811936822223501</v>
       </c>
       <c r="AC4" t="n">
-        <v>-20.22363710863489</v>
+        <v>-11.21234432104836</v>
       </c>
       <c r="AD4" t="n">
-        <v>-4.45108926475865</v>
+        <v>-3.387329281664682</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.4709902178634358</v>
+        <v>-0.1338220704739709</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.150147327866307</v>
+        <v>-0.06083274288090479</v>
       </c>
     </row>
     <row r="5">
@@ -897,97 +897,97 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.967639721497815</v>
+        <v>0.2473750310259056</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.188037213105946</v>
+        <v>0.04903106082133424</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.556710866519012</v>
+        <v>0.1182522631433644</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1914075998177019</v>
+        <v>-0.3236351120329273</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0311421122589996</v>
+        <v>-0.09001636845753576</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0003419298261629076</v>
+        <v>-0.001006874500860886</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.055097120921177</v>
+        <v>1.164895191223389</v>
       </c>
       <c r="I5" t="n">
-        <v>1.960161323504143</v>
+        <v>0.6807386034152381</v>
       </c>
       <c r="J5" t="n">
-        <v>2.524763571042764</v>
+        <v>1.248617493715161</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.101066934994571</v>
+        <v>-2.410440510896091</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.3248802029939341</v>
+        <v>-0.6756071513425111</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.00388063590105173</v>
+        <v>-0.008203626108851017</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.232128159435671</v>
+        <v>11.2325082463705</v>
       </c>
       <c r="O5" t="n">
-        <v>11.90377351284863</v>
+        <v>4.266482512845723</v>
       </c>
       <c r="P5" t="n">
-        <v>16.94098733814173</v>
+        <v>7.554762575856923</v>
       </c>
       <c r="Q5" t="n">
-        <v>-18.89901513029104</v>
+        <v>-17.70008286225281</v>
       </c>
       <c r="R5" t="n">
-        <v>-5.575436636143392</v>
+        <v>-5.206638119442591</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1381809262586988</v>
+        <v>-0.1470323533152658</v>
       </c>
       <c r="T5" t="n">
-        <v>47.46427106861864</v>
+        <v>17.3503703203209</v>
       </c>
       <c r="U5" t="n">
-        <v>6.90667424708059</v>
+        <v>8.500247105664979</v>
       </c>
       <c r="V5" t="n">
-        <v>9.560195388441574</v>
+        <v>9.189097835767621</v>
       </c>
       <c r="W5" t="n">
-        <v>-47.1962353341377</v>
+        <v>-25.26364401080313</v>
       </c>
       <c r="X5" t="n">
-        <v>-15.65317189475643</v>
+        <v>-8.982983565993445</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.081733476331022</v>
+        <v>-0.7930876848104748</v>
       </c>
       <c r="Z5" t="n">
-        <v>-55.68831895023302</v>
+        <v>-41.35448896743232</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.19128649395833</v>
+        <v>14.373355972674</v>
       </c>
       <c r="AB5" t="n">
-        <v>13.36645773628823</v>
+        <v>10.27189634464736</v>
       </c>
       <c r="AC5" t="n">
-        <v>20.27248247938637</v>
+        <v>14.91145337324258</v>
       </c>
       <c r="AD5" t="n">
-        <v>2.986233253856661</v>
+        <v>2.534967181855375</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.128141013442914</v>
+        <v>-0.7371839046147971</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.294630922941451</v>
+        <v>0.2932640248045573</v>
       </c>
     </row>
     <row r="6">
@@ -997,97 +997,97 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.967639610315641</v>
+        <v>0.2473750310259056</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.188037163057092</v>
+        <v>0.04903106082133452</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.556710807623901</v>
+        <v>0.118252263143365</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1914075976660896</v>
+        <v>-0.3236351120331354</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.03114211216258367</v>
+        <v>-0.0900163684575878</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0003419298252342884</v>
+        <v>-0.001006874500861462</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.055097531259607</v>
+        <v>1.164895191232268</v>
       </c>
       <c r="I6" t="n">
-        <v>1.960161507250494</v>
+        <v>0.6807386034152392</v>
       </c>
       <c r="J6" t="n">
-        <v>2.524763786905647</v>
+        <v>1.248617493710722</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.101066925149114</v>
+        <v>-2.410440510897756</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.324880202099927</v>
+        <v>-0.6756071513429622</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.003880635891054301</v>
+        <v>-0.008203626108856167</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.232129167411596</v>
+        <v>11.23250824638827</v>
       </c>
       <c r="O6" t="n">
-        <v>11.90377393299255</v>
+        <v>4.266482512845723</v>
       </c>
       <c r="P6" t="n">
-        <v>16.94098782273188</v>
+        <v>7.554762575856925</v>
       </c>
       <c r="Q6" t="n">
-        <v>-18.8990150470776</v>
+        <v>-17.70008286226392</v>
       </c>
       <c r="R6" t="n">
-        <v>-5.575436616532413</v>
+        <v>-5.206638119446477</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.1381809257815804</v>
+        <v>-0.1470323533153526</v>
       </c>
       <c r="T6" t="n">
-        <v>47.46426975297771</v>
+        <v>17.35037032039195</v>
       </c>
       <c r="U6" t="n">
-        <v>6.906674664524447</v>
+        <v>8.500247105664981</v>
       </c>
       <c r="V6" t="n">
-        <v>9.560195859886679</v>
+        <v>9.189097835749859</v>
       </c>
       <c r="W6" t="n">
-        <v>-47.19623501094733</v>
+        <v>-25.26364401083865</v>
       </c>
       <c r="X6" t="n">
-        <v>-15.65317179687917</v>
+        <v>-8.982983566006768</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.081733470709963</v>
+        <v>-0.7930876848111686</v>
       </c>
       <c r="Z6" t="n">
-        <v>-55.68832030196952</v>
+        <v>-41.3544889673968</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.19128667518225</v>
+        <v>14.373355972674</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.36645802650941</v>
+        <v>10.27189634463848</v>
       </c>
       <c r="AC6" t="n">
-        <v>20.27248309429006</v>
+        <v>14.91145337320705</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.986233488584454</v>
+        <v>2.534967181837611</v>
       </c>
       <c r="AE6" t="n">
-        <v>-1.128140982485456</v>
+        <v>-0.7371839046170175</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2946309271960672</v>
+        <v>0.293264024804671</v>
       </c>
     </row>
     <row r="7">
@@ -1097,97 +1097,97 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-35734.76840562659</v>
+        <v>20936.30056220723</v>
       </c>
       <c r="C7" t="n">
-        <v>15311.81931016933</v>
+        <v>-11003.16588186938</v>
       </c>
       <c r="D7" t="n">
-        <v>17726.79593992464</v>
+        <v>-13544.50428037218</v>
       </c>
       <c r="E7" t="n">
-        <v>2227.413156070137</v>
+        <v>2735.292079034157</v>
       </c>
       <c r="F7" t="n">
-        <v>463.5915519042139</v>
+        <v>866.3505052805672</v>
       </c>
       <c r="G7" t="n">
-        <v>5.148447736098396</v>
+        <v>9.727015739686268</v>
       </c>
       <c r="H7" t="n">
-        <v>119787.4984710911</v>
+        <v>46342.32248609276</v>
       </c>
       <c r="I7" t="n">
-        <v>-62898.82590747638</v>
+        <v>-32639.76689863782</v>
       </c>
       <c r="J7" t="n">
-        <v>-77365.39251818763</v>
+        <v>-42784.64650558322</v>
       </c>
       <c r="K7" t="n">
-        <v>15493.25252252827</v>
+        <v>22447.62345273199</v>
       </c>
       <c r="L7" t="n">
-        <v>4924.474406839115</v>
+        <v>6554.754566386581</v>
       </c>
       <c r="M7" t="n">
-        <v>58.99302863084608</v>
+        <v>79.71289891378049</v>
       </c>
       <c r="N7" t="n">
-        <v>115988.0788951742</v>
+        <v>-59565.2963426975</v>
       </c>
       <c r="O7" t="n">
-        <v>-207482.1279920588</v>
+        <v>-66872.45674471387</v>
       </c>
       <c r="P7" t="n">
-        <v>-289592.4017758891</v>
+        <v>-104177.1889922979</v>
       </c>
       <c r="Q7" t="n">
-        <v>292394.2700498062</v>
+        <v>176861.7041767038</v>
       </c>
       <c r="R7" t="n">
-        <v>86536.28388322337</v>
+        <v>52277.57973601871</v>
       </c>
       <c r="S7" t="n">
-        <v>2155.896956716812</v>
+        <v>1475.658166386939</v>
       </c>
       <c r="T7" t="n">
-        <v>-818807.1945659035</v>
+        <v>-250591.0742128456</v>
       </c>
       <c r="U7" t="n">
-        <v>-98336.33559003694</v>
+        <v>-72456.86879692996</v>
       </c>
       <c r="V7" t="n">
-        <v>-141641.770592899</v>
+        <v>-80563.50791136983</v>
       </c>
       <c r="W7" t="n">
-        <v>782542.5184680501</v>
+        <v>292878.129953269</v>
       </c>
       <c r="X7" t="n">
-        <v>258593.9954342364</v>
+        <v>102184.3366030503</v>
       </c>
       <c r="Y7" t="n">
-        <v>17648.78686499521</v>
+        <v>8548.984363075127</v>
       </c>
       <c r="Z7" t="n">
-        <v>405082.6716977602</v>
+        <v>131434.7225201367</v>
       </c>
       <c r="AA7" t="n">
-        <v>-273078.5071178435</v>
+        <v>-115772.4580324689</v>
       </c>
       <c r="AB7" t="n">
-        <v>-139606.9560204062</v>
+        <v>-57169.16717272591</v>
       </c>
       <c r="AC7" t="n">
-        <v>-65932.05907912622</v>
+        <v>-1425.941830326752</v>
       </c>
       <c r="AD7" t="n">
-        <v>45227.92670966147</v>
+        <v>29140.48394512023</v>
       </c>
       <c r="AE7" t="n">
-        <v>28306.92381177278</v>
+        <v>13792.36056686241</v>
       </c>
       <c r="AF7" t="n">
-        <v>-4494.00778015703</v>
+        <v>-2487.027775987983</v>
       </c>
     </row>
     <row r="8">
@@ -1197,97 +1197,97 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-35739.73604551696</v>
+        <v>20936.053187176</v>
       </c>
       <c r="C8" t="n">
-        <v>15314.00734747878</v>
+        <v>-11003.21491294887</v>
       </c>
       <c r="D8" t="n">
-        <v>17729.3526509631</v>
+        <v>-13544.62253264513</v>
       </c>
       <c r="E8" t="n">
-        <v>2227.604563676638</v>
+        <v>2735.615714145775</v>
       </c>
       <c r="F8" t="n">
-        <v>463.6226940170125</v>
+        <v>866.4405216489994</v>
       </c>
       <c r="G8" t="n">
-        <v>5.148789665927173</v>
+        <v>9.728022614186997</v>
       </c>
       <c r="H8" t="n">
-        <v>119790.5535652276</v>
+        <v>46341.15759093119</v>
       </c>
       <c r="I8" t="n">
-        <v>-62900.78606800172</v>
+        <v>-32640.44763723585</v>
       </c>
       <c r="J8" t="n">
-        <v>-77367.91728067196</v>
+        <v>-42785.8951230825</v>
       </c>
       <c r="K8" t="n">
-        <v>15494.35358950516</v>
+        <v>22450.03389324309</v>
       </c>
       <c r="L8" t="n">
-        <v>4924.799287045693</v>
+        <v>6555.430173537885</v>
       </c>
       <c r="M8" t="n">
-        <v>58.99690926679725</v>
+        <v>79.72110253988677</v>
       </c>
       <c r="N8" t="n">
-        <v>115992.3110191829</v>
+        <v>-59576.52885086241</v>
       </c>
       <c r="O8" t="n">
-        <v>-207494.031764618</v>
+        <v>-66876.72322729877</v>
       </c>
       <c r="P8" t="n">
-        <v>-289609.3427618329</v>
+        <v>-104184.7437548046</v>
       </c>
       <c r="Q8" t="n">
-        <v>292413.16906535</v>
+        <v>176879.4042595413</v>
       </c>
       <c r="R8" t="n">
-        <v>86541.85931993087</v>
+        <v>52282.78637413495</v>
       </c>
       <c r="S8" t="n">
-        <v>2156.035137644483</v>
+        <v>1475.805198740255</v>
       </c>
       <c r="T8" t="n">
-        <v>-818854.658842606</v>
+        <v>-250608.424582718</v>
       </c>
       <c r="U8" t="n">
-        <v>-98343.24226161143</v>
+        <v>-72465.36904396492</v>
       </c>
       <c r="V8" t="n">
-        <v>-141651.3307882202</v>
+        <v>-80572.69700921196</v>
       </c>
       <c r="W8" t="n">
-        <v>782589.7147044138</v>
+        <v>292903.3935971843</v>
       </c>
       <c r="X8" t="n">
-        <v>258609.6486065184</v>
+        <v>102193.3195865689</v>
       </c>
       <c r="Y8" t="n">
-        <v>17649.86859849215</v>
+        <v>8549.777450761376</v>
       </c>
       <c r="Z8" t="n">
-        <v>405138.3600127699</v>
+        <v>131476.0770092095</v>
       </c>
       <c r="AA8" t="n">
-        <v>-273098.6984036966</v>
+        <v>-115786.8313885381</v>
       </c>
       <c r="AB8" t="n">
-        <v>-139620.3224770556</v>
+        <v>-57179.43906914642</v>
       </c>
       <c r="AC8" t="n">
-        <v>-65952.33156032272</v>
+        <v>-1440.853283721933</v>
       </c>
       <c r="AD8" t="n">
-        <v>45224.94047723882</v>
+        <v>29137.94897784084</v>
       </c>
       <c r="AE8" t="n">
-        <v>28308.05195288399</v>
+        <v>13793.09775077197</v>
       </c>
       <c r="AF8" t="n">
-        <v>-4494.302411064506</v>
+        <v>-2487.321040011942</v>
       </c>
     </row>
     <row r="9">
@@ -1297,97 +1297,97 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-6.677442404562483</v>
+        <v>-3.225733046709637</v>
       </c>
       <c r="C9" t="n">
-        <v>2.97602466551574</v>
+        <v>1.412074165389979</v>
       </c>
       <c r="D9" t="n">
-        <v>3.490927346381312</v>
+        <v>1.646627962898229</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1879259598216739</v>
+        <v>0.1416463903768797</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02232390905893885</v>
+        <v>0.02510842766647578</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002405237934518817</v>
+        <v>0.0002761003780007607</v>
       </c>
       <c r="H9" t="n">
-        <v>-6.361838529218367</v>
+        <v>-8.722718355916651</v>
       </c>
       <c r="I9" t="n">
-        <v>2.468124328858725</v>
+        <v>3.609298677343222</v>
       </c>
       <c r="J9" t="n">
-        <v>2.757001005663849</v>
+        <v>4.129622180468449</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9071601038040601</v>
+        <v>0.7966373948405974</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2268599232779841</v>
+        <v>0.1849327619434922</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002693167756058918</v>
+        <v>0.002227341319501418</v>
       </c>
       <c r="N9" t="n">
-        <v>-10.76630754875279</v>
+        <v>-16.115291274784</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.997403721785418</v>
+        <v>4.808850123643972</v>
       </c>
       <c r="P9" t="n">
-        <v>-4.363631135584043</v>
+        <v>4.989208599260214</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.20528807524529</v>
+        <v>4.902080451744999</v>
       </c>
       <c r="R9" t="n">
-        <v>3.827893462839539</v>
+        <v>1.376955805255432</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09416086866421637</v>
+        <v>0.03819629486497573</v>
       </c>
       <c r="T9" t="n">
-        <v>-40.34575903844234</v>
+        <v>-9.456536531927652</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.5133735881740357</v>
+        <v>0.8474596128631194</v>
       </c>
       <c r="V9" t="n">
-        <v>-1.543213864704501</v>
+        <v>1.300286265304007</v>
       </c>
       <c r="W9" t="n">
-        <v>31.34053638088549</v>
+        <v>5.250186924062131</v>
       </c>
       <c r="X9" t="n">
-        <v>10.34682484271232</v>
+        <v>1.879489642907289</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.7149852685507347</v>
+        <v>0.1791140867390197</v>
       </c>
       <c r="Z9" t="n">
-        <v>46.87873985099032</v>
+        <v>22.69675947646948</v>
       </c>
       <c r="AA9" t="n">
-        <v>-13.37924751227277</v>
+        <v>-4.151327016356072</v>
       </c>
       <c r="AB9" t="n">
-        <v>-9.295756293429344</v>
+        <v>-3.811936813987968</v>
       </c>
       <c r="AC9" t="n">
-        <v>-20.22363703174317</v>
+        <v>-11.21234430216537</v>
       </c>
       <c r="AD9" t="n">
-        <v>-4.451089235391355</v>
+        <v>-3.387329274505847</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.4709902217341603</v>
+        <v>-0.133822069554415</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0.1501473273337979</v>
+        <v>-0.06083274274800488</v>
       </c>
     </row>
   </sheetData>
